--- a/CFAR性能.xlsx
+++ b/CFAR性能.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zanesing/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zanesing/Documents/Projects/CFAR-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F71BAF-47A7-1D4F-A94A-9ED300E0A587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883131A-BDE8-7440-BE38-EDC9928866F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -209,11 +218,11 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -224,7 +233,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -234,10 +243,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -330,55 +339,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>210172</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C64378-A209-F0A2-96A4-6706FA26A637}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13169900" y="215900"/>
-          <a:ext cx="5486400" cy="4096372"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -657,16 +617,16 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.5" customHeight="1">
+    <row r="2" spans="2:23" ht="34.5" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
@@ -680,85 +640,135 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="2:13" ht="32">
+    <row r="3" spans="2:23" ht="32">
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7">
+        <v>-45</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-44</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-43</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-42</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-41</v>
+      </c>
+      <c r="H3" s="7">
+        <v>-40</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-39</v>
+      </c>
+      <c r="J3" s="7">
+        <v>-38</v>
+      </c>
+      <c r="K3" s="7">
+        <v>-37</v>
+      </c>
+      <c r="L3" s="7">
+        <v>-36</v>
+      </c>
+      <c r="M3" s="7">
         <v>-35</v>
       </c>
-      <c r="D3" s="7">
+      <c r="N3" s="7">
         <v>-34</v>
       </c>
-      <c r="E3" s="7">
+      <c r="O3" s="7">
         <v>-33</v>
       </c>
-      <c r="F3" s="7">
+      <c r="P3" s="7">
         <v>-32</v>
       </c>
-      <c r="G3" s="7">
+      <c r="Q3" s="7">
         <v>-31</v>
       </c>
-      <c r="H3" s="7">
+      <c r="R3" s="7">
         <v>-30</v>
       </c>
-      <c r="I3" s="7">
+      <c r="S3" s="7">
         <v>-29</v>
       </c>
-      <c r="J3" s="7">
+      <c r="T3" s="7">
         <v>-28</v>
       </c>
-      <c r="K3" s="7">
+      <c r="U3" s="7">
         <v>-27</v>
       </c>
-      <c r="L3" s="7">
+      <c r="V3" s="7">
         <v>-26</v>
       </c>
-      <c r="M3" s="7">
+      <c r="W3" s="7">
         <v>-25</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="44.25" customHeight="1">
+    <row r="4" spans="2:23" ht="44.25" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="N4" s="2">
         <v>5.45E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="O4" s="1">
         <v>0.16020000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="P4" s="1">
         <v>0.34949999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="Q4" s="1">
         <v>0.5948</v>
       </c>
-      <c r="H4" s="1">
+      <c r="R4" s="1">
         <v>0.81330000000000002</v>
       </c>
-      <c r="I4" s="1">
+      <c r="S4" s="1">
         <v>0.94120000000000004</v>
       </c>
-      <c r="J4" s="1">
+      <c r="T4" s="1">
         <v>0.98899999999999999</v>
       </c>
-      <c r="K4" s="1">
+      <c r="U4" s="1">
         <v>0.99850000000000005</v>
       </c>
-      <c r="L4" s="1">
+      <c r="V4" s="1">
         <v>0.99980000000000002</v>
       </c>
-      <c r="M4" s="1">
+      <c r="W4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="37.5" customHeight="1">
+    <row r="5" spans="2:23" ht="37.5" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -772,9 +782,41 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.1782</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.9083</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.99670000000000003</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" ht="48.75" customHeight="1">
+    <row r="6" spans="2:23" ht="48.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -783,33 +825,111 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="H6" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.1022</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.2923</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.9778</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" ht="41.25" customHeight="1">
+    <row r="7" spans="2:23" ht="41.25" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="C7" s="1">
+        <v>5.33E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.72E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2127</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="25.5" customHeight="1"/>
-    <row r="9" spans="2:13" ht="47.25" customHeight="1"/>
-    <row r="10" spans="2:13" ht="33" customHeight="1"/>
-    <row r="11" spans="2:13" ht="39.75" customHeight="1">
+    <row r="8" spans="2:23" ht="25.5" customHeight="1"/>
+    <row r="9" spans="2:23" ht="47.25" customHeight="1"/>
+    <row r="10" spans="2:23" ht="33" customHeight="1"/>
+    <row r="11" spans="2:23" ht="39.75" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
@@ -823,47 +943,87 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="11"/>
     </row>
-    <row r="12" spans="2:13" ht="31.5" customHeight="1">
+    <row r="12" spans="2:23" ht="31.5" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7">
+        <v>-45</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-44</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-43</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-42</v>
+      </c>
+      <c r="G12" s="7">
+        <v>-41</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-40</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-39</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-38</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-37</v>
+      </c>
+      <c r="L12" s="7">
+        <v>-36</v>
+      </c>
+      <c r="M12" s="7">
         <v>-35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="N12" s="7">
         <v>-34</v>
       </c>
-      <c r="E12" s="7">
+      <c r="O12" s="7">
         <v>-33</v>
       </c>
-      <c r="F12" s="7">
+      <c r="P12" s="7">
         <v>-32</v>
       </c>
-      <c r="G12" s="7">
+      <c r="Q12" s="7">
         <v>-31</v>
       </c>
-      <c r="H12" s="7">
+      <c r="R12" s="7">
         <v>-30</v>
       </c>
-      <c r="I12" s="7">
+      <c r="S12" s="7">
         <v>-29</v>
       </c>
-      <c r="J12" s="7">
+      <c r="T12" s="7">
         <v>-28</v>
       </c>
-      <c r="K12" s="7">
+      <c r="U12" s="7">
         <v>-27</v>
       </c>
-      <c r="L12" s="7">
+      <c r="V12" s="7">
         <v>-26</v>
       </c>
-      <c r="M12" s="7">
+      <c r="W12" s="7">
         <v>-25</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="35.25" customHeight="1">
+    <row r="13" spans="2:23" ht="35.25" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
@@ -873,13 +1033,23 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="2:13" ht="30" customHeight="1">
+    <row r="14" spans="2:23" ht="30" customHeight="1">
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
@@ -894,8 +1064,18 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="2:13" ht="36.75" customHeight="1">
+    <row r="15" spans="2:23" ht="36.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
@@ -910,8 +1090,18 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="2:13" ht="39" customHeight="1">
+    <row r="16" spans="2:23" ht="39" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
@@ -926,6 +1116,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="19" ht="19.5" customHeight="1"/>
     <row r="20" ht="41.25" customHeight="1"/>
@@ -935,12 +1135,11 @@
     <row r="24" ht="36" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B11:W11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CFAR性能.xlsx
+++ b/CFAR性能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zanesing/Documents/Projects/CFAR-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883131A-BDE8-7440-BE38-EDC9928866F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875E2B6D-672C-1443-A056-66E2C8B44B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -281,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +315,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -926,7 +943,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="2:23" ht="25.5" customHeight="1"/>
+    <row r="8" spans="2:23" ht="44" customHeight="1"/>
     <row r="9" spans="2:23" ht="47.25" customHeight="1"/>
     <row r="10" spans="2:23" ht="33" customHeight="1"/>
     <row r="11" spans="2:23" ht="39.75" customHeight="1">
@@ -952,75 +969,71 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="2:23" ht="31.5" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7">
-        <v>-45</v>
+        <v>-36</v>
       </c>
       <c r="D12" s="7">
-        <v>-44</v>
+        <v>-35</v>
       </c>
       <c r="E12" s="7">
-        <v>-43</v>
+        <v>-34</v>
       </c>
       <c r="F12" s="7">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="G12" s="7">
-        <v>-41</v>
+        <v>-32</v>
       </c>
       <c r="H12" s="7">
-        <v>-40</v>
+        <v>-31</v>
       </c>
       <c r="I12" s="7">
-        <v>-39</v>
+        <v>-30</v>
       </c>
       <c r="J12" s="7">
-        <v>-38</v>
+        <v>-29</v>
       </c>
       <c r="K12" s="7">
-        <v>-37</v>
+        <v>-28</v>
       </c>
       <c r="L12" s="7">
-        <v>-36</v>
+        <v>-27</v>
       </c>
       <c r="M12" s="7">
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="N12" s="7">
-        <v>-34</v>
+        <v>-25</v>
       </c>
       <c r="O12" s="7">
-        <v>-33</v>
+        <v>-24</v>
       </c>
       <c r="P12" s="7">
-        <v>-32</v>
+        <v>-23</v>
       </c>
       <c r="Q12" s="7">
-        <v>-31</v>
+        <v>-22</v>
       </c>
       <c r="R12" s="7">
-        <v>-30</v>
+        <v>-21</v>
       </c>
       <c r="S12" s="7">
-        <v>-29</v>
+        <v>-20</v>
       </c>
       <c r="T12" s="7">
-        <v>-28</v>
+        <v>-19</v>
       </c>
       <c r="U12" s="7">
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="V12" s="7">
-        <v>-26</v>
-      </c>
-      <c r="W12" s="7">
-        <v>-25</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="35.25" customHeight="1">
@@ -1028,26 +1041,43 @@
         <v>0</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="N13" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O13" s="12">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.1628</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="T13" s="13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:23" ht="30" customHeight="1">
       <c r="B14" s="4" t="s">
@@ -1064,16 +1094,33 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P14" s="15">
+        <v>1.38E-2</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0.373</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="U14" s="17">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="V14" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:23" ht="36.75" customHeight="1">
       <c r="B15" s="5" t="s">
@@ -1087,45 +1134,91 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="K15" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.42330000000000001</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="R15" s="15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:23" ht="39" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1162</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.2482</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.8165</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
     </row>
     <row r="19" ht="19.5" customHeight="1"/>
     <row r="20" ht="41.25" customHeight="1"/>
@@ -1136,7 +1229,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B11:W11"/>
+    <mergeCell ref="B11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CFAR性能.xlsx
+++ b/CFAR性能.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zanesing/Documents/Projects/CFAR-python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zanesing/Documents/Projects/CFAR-detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875E2B6D-672C-1443-A056-66E2C8B44B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9AAD6-8209-E540-87AA-B74A83CF3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>CA-CFAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t xml:space="preserve"> False Alarm Probability：1e-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多脉冲情形 False Alarm Probability：1e-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -254,6 +258,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -282,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,21 +365,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,7 +375,31 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W24"/>
+  <dimension ref="B2:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -644,30 +713,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="34.5" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="2:23" ht="32">
       <c r="B3" s="8" t="s">
@@ -947,29 +1016,30 @@
     <row r="9" spans="2:23" ht="47.25" customHeight="1"/>
     <row r="10" spans="2:23" ht="33" customHeight="1"/>
     <row r="11" spans="2:23" ht="39.75" customHeight="1">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="2:23" ht="31.5" customHeight="1">
       <c r="B12" s="8" t="s">
@@ -1034,6 +1104,9 @@
       </c>
       <c r="V12" s="7">
         <v>-17</v>
+      </c>
+      <c r="W12" s="7">
+        <v>-16</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="35.25" customHeight="1">
@@ -1054,30 +1127,31 @@
       <c r="N13" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="9">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="9">
         <v>0.1628</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="1">
         <v>0.53869999999999996</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="1">
         <v>0.90500000000000003</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="1">
         <v>0.99550000000000005</v>
       </c>
-      <c r="T13" s="13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="13">
-        <v>1</v>
-      </c>
-      <c r="V13" s="13">
-        <v>1</v>
-      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="2:23" ht="30" customHeight="1">
       <c r="B14" s="4" t="s">
@@ -1097,30 +1171,31 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="11">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <v>1.38E-2</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="12">
         <v>0.10100000000000001</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="12">
         <v>0.373</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="12">
         <v>0.73799999999999999</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="12">
         <v>0.95620000000000005</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="12">
         <v>0.99780000000000002</v>
       </c>
-      <c r="V14" s="17">
-        <v>1</v>
-      </c>
+      <c r="V14" s="12">
+        <v>1</v>
+      </c>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" spans="2:23" ht="36.75" customHeight="1">
       <c r="B15" s="5" t="s">
@@ -1146,30 +1221,31 @@
       <c r="N15" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="11">
         <v>0.42330000000000001</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <v>0.80969999999999998</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="11">
         <v>0.98450000000000004</v>
       </c>
-      <c r="R15" s="15">
-        <v>1</v>
-      </c>
-      <c r="S15" s="15">
-        <v>1</v>
-      </c>
-      <c r="T15" s="15">
-        <v>1</v>
-      </c>
-      <c r="U15" s="15">
-        <v>1</v>
-      </c>
-      <c r="V15" s="15">
-        <v>1</v>
-      </c>
+      <c r="R15" s="11">
+        <v>1</v>
+      </c>
+      <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1</v>
+      </c>
+      <c r="U15" s="11">
+        <v>1</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1</v>
+      </c>
+      <c r="W15" s="10"/>
     </row>
     <row r="16" spans="2:23" ht="39" customHeight="1">
       <c r="B16" s="6" t="s">
@@ -1211,25 +1287,383 @@
       <c r="N16" s="1">
         <v>0.99850000000000005</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1"/>
-    <row r="20" ht="41.25" customHeight="1"/>
-    <row r="21" ht="35.25" customHeight="1"/>
-    <row r="22" ht="31.5" customHeight="1"/>
-    <row r="23" ht="39" customHeight="1"/>
-    <row r="24" ht="36" customHeight="1"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="2:24" ht="34" customHeight="1"/>
+    <row r="18" spans="2:24" ht="36" customHeight="1"/>
+    <row r="19" spans="2:24" ht="34" customHeight="1"/>
+    <row r="20" spans="2:24" ht="41.25" customHeight="1">
+      <c r="B20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="2:24" ht="35.25" customHeight="1">
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-12</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F21" s="7">
+        <v>-8</v>
+      </c>
+      <c r="G21" s="7">
+        <v>-6</v>
+      </c>
+      <c r="H21" s="16">
+        <v>-5</v>
+      </c>
+      <c r="I21" s="21">
+        <v>-4</v>
+      </c>
+      <c r="J21" s="21">
+        <v>-3</v>
+      </c>
+      <c r="K21" s="21">
+        <v>-2</v>
+      </c>
+      <c r="L21" s="21">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="21">
+        <v>2</v>
+      </c>
+      <c r="P21" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>4</v>
+      </c>
+      <c r="R21" s="21">
+        <v>5</v>
+      </c>
+      <c r="S21" s="21">
+        <v>6</v>
+      </c>
+      <c r="T21" s="21">
+        <v>7</v>
+      </c>
+      <c r="U21" s="21">
+        <v>8</v>
+      </c>
+      <c r="V21" s="21">
+        <v>9</v>
+      </c>
+      <c r="W21" s="21">
+        <v>10</v>
+      </c>
+      <c r="X21" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="31.5" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P22" s="11">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="R22" s="11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0.2923</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.55449999999999999</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="X22" s="11">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" ht="39" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1.38E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="11">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="36" customHeight="1">
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.42880000000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24" s="11">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
+        <v>1</v>
+      </c>
+      <c r="U24" s="11">
+        <v>1</v>
+      </c>
+      <c r="V24" s="11">
+        <v>1</v>
+      </c>
+      <c r="W24" s="11">
+        <v>1</v>
+      </c>
+      <c r="X24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="43" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <v>1</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>1</v>
+      </c>
+      <c r="U25" s="10">
+        <v>1</v>
+      </c>
+      <c r="V25" s="10">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10">
+        <v>1</v>
+      </c>
+      <c r="X25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="60" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B11:V11"/>
+    <mergeCell ref="B11:W11"/>
+    <mergeCell ref="B20:X20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
